--- a/BanglaShoppersWebsiteTestCase.xlsx
+++ b/BanglaShoppersWebsiteTestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\afia\SoftWare\Testing\TestCase\BanglaShoppers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104BA796-FD26-4C3B-B781-3FF5A6D3015A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84547385-A1FB-4CA7-9BD9-069A92356BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2475" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{B9A56922-24AD-4B90-8A77-0AD42EBBD096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{B9A56922-24AD-4B90-8A77-0AD42EBBD096}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="841">
   <si>
     <t>Product Name</t>
   </si>
@@ -2624,9 +2624,6 @@
     <t>TC010</t>
   </si>
   <si>
-    <t>Profile</t>
-  </si>
-  <si>
     <t>TC011</t>
   </si>
   <si>
@@ -2990,104 +2987,157 @@
     <t>25-03-2025</t>
   </si>
   <si>
-    <t>Verify with empty search</t>
-  </si>
-  <si>
     <t>Empty</t>
   </si>
   <si>
-    <t>1.User should stay in product page
-2.In product page ,need product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Go to site url https://ajkerdeal.com/
-2.Click search box
+    <t>Noting happen</t>
+  </si>
+  <si>
+    <t>Should show message no product found</t>
+  </si>
+  <si>
+    <t>Should show all search product</t>
+  </si>
+  <si>
+    <t>All search product show</t>
+  </si>
+  <si>
+    <t>All product should show.</t>
+  </si>
+  <si>
+    <t>Verify search with special characters</t>
+  </si>
+  <si>
+    <t>Verify search bar autocomplete suggestions</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Verify search results with sorting options applied</t>
+  </si>
+  <si>
+    <t>Verify Search Bar Presence</t>
+  </si>
+  <si>
+    <t>Verify Search with Multiple Words</t>
+  </si>
+  <si>
+    <t>Verify with Search Result Pagination</t>
+  </si>
+  <si>
+    <t>Verify with  Search Functionality on Mobile Devices</t>
+  </si>
+  <si>
+    <t>1.Go to the url https://www.banglashoppers.com/                                                      2.Check search is present in homepage header section.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The website is live and accessible.
+</t>
+  </si>
+  <si>
+    <t>Search bar should present in website</t>
+  </si>
+  <si>
+    <t>1.Go to site url https://www.banglashoppers.com/    
+2.Click search bar
 3.Keep search box empty
-4.Click search icon </t>
-  </si>
-  <si>
-    <t>Page should reload for understand event occurs</t>
-  </si>
-  <si>
-    <t>Noting happen</t>
-  </si>
-  <si>
-    <t>Verify with invaild product</t>
-  </si>
-  <si>
-    <t>x2y78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Go to site url https://ajkerdeal.com/
+4.Click search icon or press enter</t>
+  </si>
+  <si>
+    <t>Verify the behavior of the search bar when the input field is empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The website is live and accessible.                                    2.The user is on a page where the search bar is visible.
+</t>
+  </si>
+  <si>
+    <t>If the user submits an empty search query, an error message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Go to site url https://www.banglashoppers.com/   
 2.Click search box
 3.write invalid product
 4.Click search icon </t>
   </si>
   <si>
-    <t>Should show message no product found</t>
-  </si>
-  <si>
-    <t>No product found</t>
-  </si>
-  <si>
-    <t>Verify with valid product</t>
-  </si>
-  <si>
-    <t>Shirt</t>
-  </si>
-  <si>
-    <t>1.User should stay in product page
-2.In product page ,need product which will search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Go to site url https://ajkerdeal.com/
+    <t>Verify the behavior of the search bar when an invalid product  is searched.</t>
+  </si>
+  <si>
+    <t>Verify the behavior of the search bar when a valid product  is searched.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Go to site url https://www.banglashoppers.com/   
+2.Click search box
+3.write a valid product
+4.Click search icon </t>
+  </si>
+  <si>
+    <t>shampo</t>
+  </si>
+  <si>
+    <t>Verify that the search bar is not case-sensitive</t>
+  </si>
+  <si>
+    <t>shaMpO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The website is live and accessible.                                    2.The user is on a page where the search bar is visible.                                      3.The user is not required to be logged in to perform the search.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Go to site url https://www.banglashoppers.com/   
 2.Click search box
 3.write desire product
 4.Click search icon </t>
   </si>
   <si>
-    <t>Should show all search product</t>
-  </si>
-  <si>
-    <t>All search product show</t>
-  </si>
-  <si>
-    <t>Verify search option isn't case sensitive</t>
-  </si>
-  <si>
-    <t>PaNt</t>
-  </si>
-  <si>
-    <t>All product should show.</t>
-  </si>
-  <si>
-    <t>Verify search with special characters</t>
-  </si>
-  <si>
-    <t>P$&amp;a?n&amp;t</t>
-  </si>
-  <si>
-    <t>1.User should stay in product page
-2.Search option should functional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should give error message like invalid input </t>
-  </si>
-  <si>
-    <t>No message show</t>
-  </si>
-  <si>
-    <t>Verify search bar autocomplete suggestions</t>
-  </si>
-  <si>
-    <t>lap for laptop</t>
-  </si>
-  <si>
-    <t>1.site supports autocomplete for the search bar
-2.There are several products in the database related to the search term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Go to site url https://ajkerdeal.com/
+    <t>Verify search only special characters</t>
+  </si>
+  <si>
+    <t>@#!$%&amp;*</t>
+  </si>
+  <si>
+    <t>The search results should show no results found for '@#!$%&amp;*'.</t>
+  </si>
+  <si>
+    <t>Verify Special Characters with Valid Product Name</t>
+  </si>
+  <si>
+    <t>Moisturizer-XYZ</t>
+  </si>
+  <si>
+    <t>The search should return valid products related to "Moisturizer-XYZ" if that product exists on the website.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Go to site url https://www.banglashoppers.com/   
+2.Click search box
+3.Enter a search query containing special characters such as @, #, !, %, &amp;, *, etc.
+4.Click search icon </t>
+  </si>
+  <si>
+    <t>#Moisturizer@2023</t>
+  </si>
+  <si>
+    <t>Show related product</t>
+  </si>
+  <si>
+    <t>Should show partially mathces product</t>
+  </si>
+  <si>
+    <t>M134dv</t>
+  </si>
+  <si>
+    <t>No products for query.</t>
+  </si>
+  <si>
+    <t>No result found.</t>
+  </si>
+  <si>
+    <t>sham for shampo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Go to site url https://www.banglashoppers.com/   
 2.Click search box
 3.Type a partial product name
 4.Observe the autocomplete suggestions as the user types
@@ -3095,82 +3145,251 @@
 </t>
   </si>
   <si>
-    <t>The autocomplete dropdown should show relevant product suggestions as the user types</t>
-  </si>
-  <si>
-    <t>Wrong product suggestions show</t>
-  </si>
-  <si>
-    <t>Verify search results with filters applied</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>1.The e-commerce site/application supports search filters (e.g., category, price range).
-2.There are products in various categories and price ranges.</t>
+    <t>The search bar should start showing autocomplete suggestions related to the typed text.</t>
+  </si>
+  <si>
+    <t>Verify the search results when filters are applied.</t>
+  </si>
+  <si>
+    <t>  Verify an error message displayed by entering invalid keywords in the search field and clicking the search button</t>
+  </si>
+  <si>
+    <t>Verify pagination added in case the search result goes on the number of pages</t>
+  </si>
+  <si>
+    <t>Facewash</t>
+  </si>
+  <si>
+    <t>Should show only filter range related product</t>
   </si>
   <si>
     <t>1.Go to site url https://ajkerdeal.com/
 2.Click search box
-3.Type a valid search term (e.g., "Smartphone")
-4.Apply filters (set price range from 20KBDT to 30KBDT).
+3.Type a valid search term 
+4.Apply filters (set price range from 500 BDT to 1500BDT).
 5.Press the "Search" button or hit Enter.
 6.Wait for the results to load.</t>
   </si>
   <si>
-    <t>Products should be displayed in the correct price range or category</t>
-  </si>
-  <si>
-    <t>No filter works</t>
-  </si>
-  <si>
-    <t>Verify search results with sorting options applied</t>
-  </si>
-  <si>
-    <t>Headphones</t>
-  </si>
-  <si>
-    <t>1.The e-commerce site/application supports sorting of search results
-2.There are products in various price ranges, ratings, and categories</t>
-  </si>
-  <si>
-    <t>1.Go to site url https://ajkerdeal.com/ 
-2.enter a valid search term (e.g., ""Headphones"")
-3.Press the ""Search"" button or hit Enter
-4.Apply a sorting option, such as ""Price: Low to High"" or ""Best Sellers
-5.Wait for the results to load</t>
-  </si>
-  <si>
-    <t>The search results should be sorted according to the selected option</t>
-  </si>
-  <si>
-    <t>No sort is work</t>
-  </si>
-  <si>
-    <t>Verify Search Bar Presence</t>
-  </si>
-  <si>
-    <t>Verify Search with Multiple Words</t>
-  </si>
-  <si>
-    <t>Verify with Search Result Pagination</t>
-  </si>
-  <si>
-    <t>Verify Search with No Results</t>
-  </si>
-  <si>
-    <t>Verify with  Search Functionality on Mobile Devices</t>
-  </si>
-  <si>
-    <t>Search Button</t>
+    <t>Show given range related product</t>
+  </si>
+  <si>
+    <t>1.Go to site url https://www.banglashoppers.com/   
+2.Click search box
+3.Enter "Moisturizer-XYZ" into the search bar, ensuring the hyphen is included.        4.Wait for the results to load.</t>
+  </si>
+  <si>
+    <t>Show products</t>
+  </si>
+  <si>
+    <t>Verify applied filter can clear</t>
+  </si>
+  <si>
+    <t>1.Go to site url https://ajkerdeal.com/
+2.Click search box
+3.Type a valid search term 
+4.Apply filters (set price range from 500 BDT to 1500BDT).
+5.Press the "Search" button or hit Enter.
+6.Wait for the results to load. 7.Then clear filter</t>
+  </si>
+  <si>
+    <t>Should clear applied filter and reset</t>
+  </si>
+  <si>
+    <t>Filter is clearable</t>
+  </si>
+  <si>
+    <t>Moisturizer</t>
+  </si>
+  <si>
+    <t>1.Go to site url https://www.banglashoppers.com/   
+2.Write a search term like moisturizer in the search bar.
+3.Wait for the results to load.  4.Select one of the sorting options from the sorting dropdown (e.g., "Price: Low to High", "Price: High to Low").                                               5.Ensure that the products are sorted correctly based on the selected option.                6.Again apply the new sorting and see what happen.</t>
+  </si>
+  <si>
+    <t>No sorting option available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Go to site url https://www.banglashoppers.com/   
+2.Write a search term with multiple words, such as moisturizer for oily skin.
+3..Wait for the results to load.            </t>
+  </si>
+  <si>
+    <t>Show result as expected</t>
+  </si>
+  <si>
+    <t>The search results should return products that are relevant to the multiple words entered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The website is live and accessible.                                    2.The website contains multiple products.
+</t>
+  </si>
+  <si>
+    <t>The pagination controls (Next, Previous, page numbers) should be visible and functional.</t>
+  </si>
+  <si>
+    <t>Moisturizer for oily skin.</t>
+  </si>
+  <si>
+    <t>Results should show products related to moisturizers specifically designed for dry skin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Go to site url https://www.banglashoppers.com/   
+2.Write a search term, such as "Moisturizer" or "Anti-aging Cream," that is likely to return more than one page of results.
+3..Wait for the results to load.            </t>
+  </si>
+  <si>
+    <t>The pagination controls work as expected, and users can successfully navigate through multiple pages</t>
+  </si>
+  <si>
+    <t>1.Go to site url https://www.banglashoppers.com/   
+2.Enter a search term that is not expected to match any products in the system,
+3.Wait for the results to load</t>
+  </si>
+  <si>
+    <t>The page should display a clear message indicating that no results were found</t>
+  </si>
+  <si>
+    <t>After search show no result found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The website is live and accessible.                                    2.The mobile website is responsive and optimized for different screen sizes
+</t>
+  </si>
+  <si>
+    <t>1.Go to the url (https://www.banglashoppers.com/).
+2.Check that the mobile version of the website loads correctly and the interface adapts to the smaller screen size.
+3.Check the search bar is visible and easily accessible on the mobile screen.
+4.Tap the search bar to focus on it.
+5.Type a product name into the search bar.
+6.Ensure that the keyboard pops up correctly and users can enter the search term without issues.
+7.Press the search button.
+8.Wait for the search results page to load.</t>
+  </si>
+  <si>
+    <t>The search bar should be visible and easily accessible on mobile devices.</t>
+  </si>
+  <si>
+    <t>The search bar is accessible on mobile devices, and the search results are displayed correctly in a mobile-friendly layout.</t>
+  </si>
+  <si>
+    <t>Verify Search icon is present</t>
+  </si>
+  <si>
+    <t>The search icon (magnifying glass) should be clearly visible on the page</t>
+  </si>
+  <si>
+    <t>1.Go to site url https://www.banglashoppers.com/   
+2.Check the search icon is visible on both desktop and mobile versions of the site.</t>
+  </si>
+  <si>
+    <t>Verify Search for a Non-Existent Product</t>
+  </si>
+  <si>
+    <t>Verify cursor should be present on click on the search icon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Go to site url https://www.banglashoppers.com/   
+2.Ensure that the search icon is visible and placed in right place.
+3.Click on the search icon.
+4.Check the cursor should be blinking in the search box.
+5.After the cursor appears in the search field, the user is able to start typing without any delays or issues.
+</t>
+  </si>
+  <si>
+    <t>After clicking the search icon, the cursor should appear in the search input field.</t>
+  </si>
+  <si>
+    <t>Shampo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The website is live and accessible.                                    2.The user is on a page where the search bar is visible.                                      
+</t>
+  </si>
+  <si>
+    <t>1.Go to site url https://www.banglashoppers.com/   
+2.Enter a valid search term.
+3.Wait for the results to load                4.See how much time required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify how much time is required for getting the search result.</t>
+  </si>
+  <si>
+    <t>Should not take more then 5sec</t>
+  </si>
+  <si>
+    <t>Take time 0.001 sec</t>
+  </si>
+  <si>
+    <t>Verify Loader Displayed if Search Takes Time to Get Results</t>
+  </si>
+  <si>
+    <t>1.Go to site url https://www.banglashoppers.com/   
+2.Enter a valid search term.
+3.Wait for the results to load.                4.See how much time required.</t>
+  </si>
+  <si>
+    <t>When the search takes longer than expected a loader  should appear on the screen.</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Pagination controls should appear at the bottom of the search results when the number of results exceeds a single page.</t>
+  </si>
+  <si>
+    <t>Pagination controls are displayed when there are more search results than can fit on a single page.</t>
+  </si>
+  <si>
+    <t>1.Go to site url https://www.banglashoppers.com/   
+2.Enter a valid search term.
+3.Wait for the results to load.                4.Check for the presence of pagination controls at the bottom of the search results page.                            5.Click on the "Next" button (or "2" if it's visible as the second page) to go to the next page of search results.</t>
+  </si>
+  <si>
+    <t>1.Go to site url https://www.banglashoppers.com/   
+2.Enter a valid search term.
+3.Wait for the results to load.                4.Check for the presence of pagination controls at the bottom of the search results page.                            5.Click on the "Next" button to go to the next page of search results.</t>
+  </si>
+  <si>
+    <t>Verify Display of All Products After Clearing Search</t>
+  </si>
+  <si>
+    <t>1.Go to site url https://www.banglashoppers.com/   
+2.Enter a valid search term.
+3.Wait for the results to load.                4.Clear the search product.</t>
+  </si>
+  <si>
+    <t>After clearing the search query, the search bar should be empty</t>
+  </si>
+  <si>
+    <t>After clearing the search query, all products are displayed correctly without any filters applied.</t>
+  </si>
+  <si>
+    <t>Verify real time search functionality</t>
+  </si>
+  <si>
+    <t>1.Go to site url https://www.banglashoppers.com/   
+2.Click on the search bar and start typing a search term.
+3.The results should update within a couple of seconds after typing each character.</t>
+  </si>
+  <si>
+    <t>As the user types in the search bar, the search results should update instantly</t>
+  </si>
+  <si>
+    <t>The search results dynamically update as the user types in the search bar.</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>27-03-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3237,8 +3456,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3341,6 +3597,18 @@
         <bgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3370,7 +3638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3505,6 +3773,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="12" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3520,59 +3798,130 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="12" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4121,10 +4470,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="53"/>
       <c r="C1" s="26" t="s">
         <v>56</v>
       </c>
@@ -4139,16 +4488,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="3"/>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="49"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="11" t="s">
         <v>400</v>
       </c>
@@ -4171,10 +4520,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
@@ -4197,16 +4546,16 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="6" t="s">
         <v>18</v>
       </c>
@@ -4505,7 +4854,7 @@
     </row>
     <row r="16" spans="1:10" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>449</v>
@@ -4531,7 +4880,7 @@
     </row>
     <row r="17" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>448</v>
@@ -4557,7 +4906,7 @@
     </row>
     <row r="18" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>467</v>
@@ -4583,7 +4932,7 @@
     </row>
     <row r="19" spans="1:9" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>466</v>
@@ -4609,7 +4958,7 @@
     </row>
     <row r="20" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>403</v>
@@ -4635,7 +4984,7 @@
     </row>
     <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>465</v>
@@ -4661,7 +5010,7 @@
     </row>
     <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>469</v>
@@ -4687,7 +5036,7 @@
     </row>
     <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>468</v>
@@ -4713,7 +5062,7 @@
     </row>
     <row r="24" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>404</v>
@@ -4739,7 +5088,7 @@
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>478</v>
@@ -4765,7 +5114,7 @@
     </row>
     <row r="26" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>482</v>
@@ -4792,7 +5141,7 @@
     </row>
     <row r="27" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>486</v>
@@ -4818,7 +5167,7 @@
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>492</v>
@@ -4844,7 +5193,7 @@
     </row>
     <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>496</v>
@@ -4870,7 +5219,7 @@
     </row>
     <row r="30" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>500</v>
@@ -4896,7 +5245,7 @@
     </row>
     <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>504</v>
@@ -4922,7 +5271,7 @@
     </row>
     <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>510</v>
@@ -4948,7 +5297,7 @@
     </row>
     <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>515</v>
@@ -4974,7 +5323,7 @@
     </row>
     <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>524</v>
@@ -5000,7 +5349,7 @@
     </row>
     <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>520</v>
@@ -5026,7 +5375,7 @@
     </row>
     <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>527</v>
@@ -5052,7 +5401,7 @@
     </row>
     <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>533</v>
@@ -5078,7 +5427,7 @@
     </row>
     <row r="38" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>538</v>
@@ -5104,7 +5453,7 @@
     </row>
     <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>543</v>
@@ -5130,7 +5479,7 @@
     </row>
     <row r="40" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>542</v>
@@ -5156,7 +5505,7 @@
     </row>
     <row r="41" spans="1:9" ht="232.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>548</v>
@@ -5182,7 +5531,7 @@
     </row>
     <row r="42" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>552</v>
@@ -5208,7 +5557,7 @@
     </row>
     <row r="43" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>558</v>
@@ -5234,7 +5583,7 @@
     </row>
     <row r="44" spans="1:9" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>563</v>
@@ -5260,7 +5609,7 @@
     </row>
     <row r="45" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>567</v>
@@ -5286,7 +5635,7 @@
     </row>
     <row r="46" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>572</v>
@@ -5312,7 +5661,7 @@
     </row>
     <row r="47" spans="1:9" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>577</v>
@@ -5339,7 +5688,7 @@
     </row>
     <row r="48" spans="1:9" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>581</v>
@@ -5365,7 +5714,7 @@
     </row>
     <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>585</v>
@@ -5391,7 +5740,7 @@
     </row>
     <row r="50" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>408</v>
@@ -5417,7 +5766,7 @@
     </row>
     <row r="51" spans="1:8" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>409</v>
@@ -5443,7 +5792,7 @@
     </row>
     <row r="52" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>598</v>
@@ -5469,7 +5818,7 @@
     </row>
     <row r="53" spans="1:8" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>601</v>
@@ -5495,7 +5844,7 @@
     </row>
     <row r="54" spans="1:8" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>406</v>
@@ -5521,7 +5870,7 @@
     </row>
     <row r="55" spans="1:8" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>405</v>
@@ -5547,7 +5896,7 @@
     </row>
     <row r="56" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>407</v>
@@ -5573,7 +5922,7 @@
     </row>
     <row r="57" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>616</v>
@@ -5599,7 +5948,7 @@
     </row>
     <row r="58" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>620</v>
@@ -5679,10 +6028,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="53"/>
       <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
@@ -5697,16 +6046,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="5"/>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="49"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="8" t="s">
         <v>27</v>
       </c>
@@ -5729,8 +6078,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2" t="s">
@@ -5754,10 +6103,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
@@ -5781,16 +6130,16 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
       <c r="I5" s="6" t="s">
         <v>18</v>
       </c>
@@ -6090,7 +6439,7 @@
     </row>
     <row r="17" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>50</v>
@@ -6116,7 +6465,7 @@
     </row>
     <row r="18" spans="1:8" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>51</v>
@@ -6142,7 +6491,7 @@
     </row>
     <row r="19" spans="1:8" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>52</v>
@@ -6168,7 +6517,7 @@
     </row>
     <row r="20" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>87</v>
@@ -6194,7 +6543,7 @@
     </row>
     <row r="21" spans="1:8" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>108</v>
@@ -6220,7 +6569,7 @@
     </row>
     <row r="22" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>53</v>
@@ -6246,7 +6595,7 @@
     </row>
     <row r="23" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>54</v>
@@ -6272,7 +6621,7 @@
     </row>
     <row r="24" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>55</v>
@@ -6298,7 +6647,7 @@
     </row>
     <row r="25" spans="1:8" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>136</v>
@@ -6324,7 +6673,7 @@
     </row>
     <row r="26" spans="1:8" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>141</v>
@@ -6350,7 +6699,7 @@
     </row>
     <row r="27" spans="1:8" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>63</v>
@@ -6376,7 +6725,7 @@
     </row>
     <row r="28" spans="1:8" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>142</v>
@@ -6402,7 +6751,7 @@
     </row>
     <row r="29" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>67</v>
@@ -6428,7 +6777,7 @@
     </row>
     <row r="30" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>158</v>
@@ -6454,7 +6803,7 @@
     </row>
     <row r="31" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>162</v>
@@ -6480,7 +6829,7 @@
     </row>
     <row r="32" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>165</v>
@@ -6506,7 +6855,7 @@
     </row>
     <row r="33" spans="1:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>170</v>
@@ -6532,7 +6881,7 @@
     </row>
     <row r="34" spans="1:8" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>173</v>
@@ -6558,7 +6907,7 @@
     </row>
     <row r="35" spans="1:8" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>177</v>
@@ -6584,7 +6933,7 @@
     </row>
     <row r="36" spans="1:8" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>182</v>
@@ -6610,7 +6959,7 @@
     </row>
     <row r="37" spans="1:8" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>186</v>
@@ -6636,7 +6985,7 @@
     </row>
     <row r="38" spans="1:8" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>188</v>
@@ -6662,7 +7011,7 @@
     </row>
     <row r="39" spans="1:8" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>190</v>
@@ -6688,7 +7037,7 @@
     </row>
     <row r="40" spans="1:8" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>194</v>
@@ -6766,10 +7115,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="53"/>
       <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
@@ -6784,16 +7133,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="5"/>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="49"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="8" t="s">
         <v>196</v>
       </c>
@@ -6816,10 +7165,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
@@ -6842,16 +7191,16 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="6" t="s">
         <v>18</v>
       </c>
@@ -7150,7 +7499,7 @@
     </row>
     <row r="16" spans="1:10" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>224</v>
@@ -7176,7 +7525,7 @@
     </row>
     <row r="17" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>225</v>
@@ -7202,7 +7551,7 @@
     </row>
     <row r="18" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>284</v>
@@ -7228,7 +7577,7 @@
     </row>
     <row r="19" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>234</v>
@@ -7254,7 +7603,7 @@
     </row>
     <row r="20" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>235</v>
@@ -7280,7 +7629,7 @@
     </row>
     <row r="21" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>236</v>
@@ -7306,7 +7655,7 @@
     </row>
     <row r="22" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>237</v>
@@ -7332,7 +7681,7 @@
     </row>
     <row r="23" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>238</v>
@@ -7358,7 +7707,7 @@
     </row>
     <row r="24" spans="1:8" s="28" customFormat="1" ht="219.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>307</v>
@@ -7384,7 +7733,7 @@
     </row>
     <row r="25" spans="1:8" s="28" customFormat="1" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>395</v>
@@ -7410,7 +7759,7 @@
     </row>
     <row r="26" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>239</v>
@@ -7436,7 +7785,7 @@
     </row>
     <row r="27" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>240</v>
@@ -7462,7 +7811,7 @@
     </row>
     <row r="28" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>241</v>
@@ -7488,7 +7837,7 @@
     </row>
     <row r="29" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>242</v>
@@ -7514,7 +7863,7 @@
     </row>
     <row r="30" spans="1:8" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>246</v>
@@ -7540,7 +7889,7 @@
     </row>
     <row r="31" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>248</v>
@@ -7566,7 +7915,7 @@
     </row>
     <row r="32" spans="1:8" ht="221.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>263</v>
@@ -7592,7 +7941,7 @@
     </row>
     <row r="33" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>264</v>
@@ -7618,7 +7967,7 @@
     </row>
     <row r="34" spans="1:8" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>249</v>
@@ -7644,7 +7993,7 @@
     </row>
     <row r="35" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>250</v>
@@ -7670,7 +8019,7 @@
     </row>
     <row r="36" spans="1:8" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>251</v>
@@ -7696,7 +8045,7 @@
     </row>
     <row r="37" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>247</v>
@@ -7722,7 +8071,7 @@
     </row>
     <row r="38" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>243</v>
@@ -7748,7 +8097,7 @@
     </row>
     <row r="39" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>262</v>
@@ -7774,7 +8123,7 @@
     </row>
     <row r="40" spans="1:8" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>349</v>
@@ -7800,7 +8149,7 @@
     </row>
     <row r="41" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>244</v>
@@ -7826,7 +8175,7 @@
     </row>
     <row r="42" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>245</v>
@@ -7852,7 +8201,7 @@
     </row>
     <row r="43" spans="1:8" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>252</v>
@@ -7878,7 +8227,7 @@
     </row>
     <row r="44" spans="1:8" ht="300.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>254</v>
@@ -7904,7 +8253,7 @@
     </row>
     <row r="45" spans="1:8" ht="318.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>363</v>
@@ -7930,7 +8279,7 @@
     </row>
     <row r="46" spans="1:8" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>255</v>
@@ -7956,7 +8305,7 @@
     </row>
     <row r="47" spans="1:8" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>380</v>
@@ -7982,7 +8331,7 @@
     </row>
     <row r="48" spans="1:8" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>364</v>
@@ -8088,7 +8437,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8105,10 +8454,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="53"/>
       <c r="C1" s="26" t="s">
         <v>56</v>
       </c>
@@ -8117,22 +8466,22 @@
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="3"/>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="49"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="11" t="s">
         <v>632</v>
       </c>
@@ -8141,7 +8490,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -8155,8 +8504,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="2" t="s">
@@ -8179,10 +8528,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="13" t="s">
         <v>12</v>
       </c>
@@ -8205,16 +8554,16 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
       <c r="I5" s="6" t="s">
         <v>18</v>
       </c>
@@ -8256,22 +8605,22 @@
         <v>29</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>678</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>681</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>679</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>678</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>680</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>682</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>683</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>34</v>
@@ -8282,24 +8631,24 @@
         <v>35</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>684</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>685</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>686</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>687</v>
-      </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="49" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8308,24 +8657,24 @@
         <v>39</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C9" s="32" t="s">
+        <v>690</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>691</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>684</v>
-      </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="19" t="s">
         <v>692</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>693</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>694</v>
-      </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="49" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8334,49 +8683,49 @@
         <v>42</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>696</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>697</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>696</v>
-      </c>
       <c r="E10" s="19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F10" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>703</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>704</v>
-      </c>
       <c r="H10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="55"/>
+      <c r="I10" s="50"/>
     </row>
     <row r="11" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>704</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>697</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>705</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>698</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>706</v>
-      </c>
       <c r="E11" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>712</v>
-      </c>
       <c r="G11" s="19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H11" s="34" t="s">
         <v>75</v>
@@ -8387,22 +8736,22 @@
         <v>45</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>698</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>707</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>699</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="E12" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>708</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>713</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>709</v>
-      </c>
       <c r="G12" s="18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H12" s="34" t="s">
         <v>75</v>
@@ -8413,22 +8762,22 @@
         <v>46</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E13" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>718</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>717</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>719</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>718</v>
       </c>
       <c r="H13" s="33" t="s">
         <v>34</v>
@@ -8439,22 +8788,22 @@
         <v>47</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>700</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>720</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>701</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>708</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>723</v>
-      </c>
-      <c r="F14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>721</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>722</v>
       </c>
       <c r="H14" s="34" t="s">
         <v>75</v>
@@ -8465,22 +8814,22 @@
         <v>48</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>701</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>725</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>702</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="E15" s="19" t="s">
+      <c r="F15" s="19" t="s">
         <v>726</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>727</v>
-      </c>
       <c r="G15" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H15" s="33" t="s">
         <v>34</v>
@@ -8490,23 +8839,23 @@
       <c r="A16" s="18" t="s">
         <v>633</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="48" t="s">
+        <v>728</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>701</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>707</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>729</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>702</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>708</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="F16" s="48" t="s">
         <v>730</v>
       </c>
-      <c r="F16" s="53" t="s">
-        <v>731</v>
-      </c>
       <c r="G16" s="18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H16" s="34" t="s">
         <v>75</v>
@@ -8552,445 +8901,830 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BF1F98-80CD-4BD6-B884-E0D5A3687446}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="25" style="18" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="71" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="18.7109375" style="78" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="78" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="78" customWidth="1"/>
+    <col min="4" max="4" width="25" style="78" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="78" customWidth="1"/>
+    <col min="6" max="6" width="21" style="78" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="78" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:12" s="63" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="61" t="s">
+        <v>840</v>
+      </c>
+      <c r="G1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="50" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="49"/>
-    </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="J1" s="58"/>
+    </row>
+    <row r="2" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="65" t="s">
+        <v>839</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>840</v>
+      </c>
+      <c r="G2" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="61"/>
+      <c r="I2" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="97">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="66">
+        <v>1</v>
+      </c>
+      <c r="I3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="66"/>
+      <c r="G4" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="71">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="63" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="63" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>742</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>747</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>746</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>748</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="75"/>
+    </row>
+    <row r="8" spans="1:12" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>750</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>732</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>751</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>749</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>752</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="H8" s="91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>754</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>772</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>751</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>753</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>734</v>
+      </c>
+      <c r="G9" s="89" t="s">
+        <v>773</v>
+      </c>
+      <c r="H9" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="51"/>
+    </row>
+    <row r="10" spans="1:12" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>755</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>757</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>751</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>756</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>735</v>
+      </c>
+      <c r="G10" s="80" t="s">
+        <v>736</v>
+      </c>
+      <c r="H10" s="92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>758</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>759</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>760</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>761</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>737</v>
+      </c>
+      <c r="G11" s="80" t="s">
+        <v>736</v>
+      </c>
+      <c r="H11" s="92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>738</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>769</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>760</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>768</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>771</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>770</v>
+      </c>
+      <c r="H12" s="92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>762</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>763</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>760</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>768</v>
+      </c>
+      <c r="F13" s="79" t="s">
+        <v>764</v>
+      </c>
+      <c r="G13" s="90" t="s">
+        <v>774</v>
+      </c>
+      <c r="H13" s="92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>739</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>775</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>760</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>776</v>
+      </c>
+      <c r="F14" s="79" t="s">
+        <v>777</v>
+      </c>
+      <c r="G14" s="80" t="s">
+        <v>770</v>
+      </c>
+      <c r="H14" s="92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>778</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>781</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>760</v>
+      </c>
+      <c r="E15" s="80" t="s">
+        <v>783</v>
+      </c>
+      <c r="F15" s="79" t="s">
+        <v>782</v>
+      </c>
+      <c r="G15" s="80" t="s">
+        <v>784</v>
+      </c>
+      <c r="H15" s="92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="74" t="s">
+        <v>633</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>787</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>781</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>760</v>
+      </c>
+      <c r="E16" s="80" t="s">
+        <v>788</v>
+      </c>
+      <c r="F16" s="79" t="s">
+        <v>789</v>
+      </c>
+      <c r="G16" s="80" t="s">
+        <v>790</v>
+      </c>
+      <c r="H16" s="92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="74" t="s">
         <v>634</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="10">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>776</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-    </row>
-    <row r="8" spans="1:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>733</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>734</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>735</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>736</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>737</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>738</v>
-      </c>
-      <c r="H8" s="64" t="s">
+      <c r="B17" s="48" t="s">
+        <v>765</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>766</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>760</v>
+      </c>
+      <c r="E17" s="80" t="s">
+        <v>785</v>
+      </c>
+      <c r="F17" s="79" t="s">
+        <v>767</v>
+      </c>
+      <c r="G17" s="90" t="s">
+        <v>786</v>
+      </c>
+      <c r="H17" s="92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="291" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="74" t="s">
+        <v>635</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>741</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>791</v>
+      </c>
+      <c r="D18" s="85" t="s">
+        <v>760</v>
+      </c>
+      <c r="E18" s="80" t="s">
+        <v>792</v>
+      </c>
+      <c r="F18" s="79" t="s">
+        <v>796</v>
+      </c>
+      <c r="G18" s="80" t="s">
+        <v>793</v>
+      </c>
+      <c r="H18" s="93" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>739</v>
-      </c>
-      <c r="C9" s="62" t="s">
+    <row r="19" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="74" t="s">
+        <v>636</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>743</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>799</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>760</v>
+      </c>
+      <c r="E19" s="80" t="s">
+        <v>794</v>
+      </c>
+      <c r="F19" s="79" t="s">
+        <v>800</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>795</v>
+      </c>
+      <c r="H19" s="94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="74" t="s">
+        <v>637</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>744</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="D20" s="85" t="s">
+        <v>797</v>
+      </c>
+      <c r="E20" s="80" t="s">
+        <v>801</v>
+      </c>
+      <c r="F20" s="79" t="s">
+        <v>798</v>
+      </c>
+      <c r="G20" s="79" t="s">
+        <v>802</v>
+      </c>
+      <c r="H20" s="94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A21" s="74" t="s">
+        <v>638</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>813</v>
+      </c>
+      <c r="C21" s="78" t="s">
         <v>740</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>735</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>741</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>742</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>743</v>
-      </c>
-      <c r="H9" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="67"/>
-    </row>
-    <row r="10" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>744</v>
-      </c>
-      <c r="C10" s="62" t="s">
+      <c r="D21" s="85" t="s">
+        <v>760</v>
+      </c>
+      <c r="E21" s="80" t="s">
+        <v>803</v>
+      </c>
+      <c r="F21" s="79" t="s">
+        <v>804</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>805</v>
+      </c>
+      <c r="H21" s="94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+      <c r="A22" s="74" t="s">
+        <v>639</v>
+      </c>
+      <c r="B22" s="77" t="s">
         <v>745</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>746</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>747</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>748</v>
-      </c>
-      <c r="G10" s="61" t="s">
-        <v>749</v>
-      </c>
-      <c r="H10" s="66" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>750</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>751</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>746</v>
-      </c>
-      <c r="E11" s="63" t="s">
-        <v>747</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>752</v>
-      </c>
-      <c r="G11" s="61" t="s">
-        <v>749</v>
-      </c>
-      <c r="H11" s="66" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>753</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>754</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>755</v>
-      </c>
-      <c r="E12" s="63" t="s">
-        <v>747</v>
-      </c>
-      <c r="F12" s="61" t="s">
-        <v>756</v>
-      </c>
-      <c r="G12" s="65" t="s">
+      <c r="C22" s="78" t="s">
         <v>757</v>
       </c>
-      <c r="H12" s="68" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>758</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>759</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="D22" s="85" t="s">
+        <v>806</v>
+      </c>
+      <c r="E22" s="80" t="s">
+        <v>807</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>808</v>
+      </c>
+      <c r="G22" s="79" t="s">
+        <v>809</v>
+      </c>
+      <c r="H22" s="94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="74" t="s">
+        <v>640</v>
+      </c>
+      <c r="B23" s="79" t="s">
+        <v>810</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="85" t="s">
         <v>760</v>
       </c>
-      <c r="E13" s="63" t="s">
-        <v>761</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>762</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>763</v>
-      </c>
-      <c r="H13" s="68" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>764</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>765</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>766</v>
-      </c>
-      <c r="E14" s="69" t="s">
-        <v>767</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>768</v>
-      </c>
-      <c r="G14" s="65" t="s">
-        <v>769</v>
-      </c>
-      <c r="H14" s="68" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>770</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>771</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>772</v>
-      </c>
-      <c r="E15" s="69" t="s">
-        <v>773</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>774</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>775</v>
-      </c>
-      <c r="H15" s="68" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
-        <v>633</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
-        <v>635</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
-        <v>636</v>
-      </c>
-      <c r="B18" s="24" t="s">
+      <c r="E23" s="80" t="s">
+        <v>812</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>811</v>
+      </c>
+      <c r="G23" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" s="74" t="s">
+        <v>641</v>
+      </c>
+      <c r="B24" s="82" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
-        <v>637</v>
-      </c>
-      <c r="B19" s="24" t="s">
+      <c r="C24" s="78" t="s">
+        <v>740</v>
+      </c>
+      <c r="D24" s="85" t="s">
+        <v>760</v>
+      </c>
+      <c r="E24" s="80" t="s">
+        <v>803</v>
+      </c>
+      <c r="F24" s="79" t="s">
+        <v>804</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>805</v>
+      </c>
+      <c r="H24" s="94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="74" t="s">
+        <v>642</v>
+      </c>
+      <c r="B25" s="77" t="s">
+        <v>814</v>
+      </c>
+      <c r="D25" s="85" t="s">
+        <v>760</v>
+      </c>
+      <c r="E25" s="80" t="s">
+        <v>815</v>
+      </c>
+      <c r="F25" s="79" t="s">
+        <v>816</v>
+      </c>
+      <c r="G25" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="74" t="s">
+        <v>643</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>820</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>817</v>
+      </c>
+      <c r="D26" s="85" t="s">
+        <v>818</v>
+      </c>
+      <c r="E26" s="80" t="s">
+        <v>819</v>
+      </c>
+      <c r="F26" s="77" t="s">
+        <v>821</v>
+      </c>
+      <c r="G26" s="78" t="s">
+        <v>822</v>
+      </c>
+      <c r="H26" s="94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="74" t="s">
+        <v>644</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>817</v>
+      </c>
+      <c r="D27" s="85" t="s">
+        <v>818</v>
+      </c>
+      <c r="E27" s="80" t="s">
+        <v>824</v>
+      </c>
+      <c r="F27" s="79" t="s">
+        <v>825</v>
+      </c>
+      <c r="G27" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="H27" s="95" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A28" s="74" t="s">
+        <v>645</v>
+      </c>
+      <c r="B28" s="77" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
-        <v>638</v>
-      </c>
-      <c r="B20" t="s">
-        <v>781</v>
+      <c r="C28" s="78" t="s">
+        <v>817</v>
+      </c>
+      <c r="D28" s="85" t="s">
+        <v>760</v>
+      </c>
+      <c r="E28" s="80" t="s">
+        <v>829</v>
+      </c>
+      <c r="F28" s="79" t="s">
+        <v>827</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>828</v>
+      </c>
+      <c r="H28" s="94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A29" s="74" t="s">
+        <v>646</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>780</v>
+      </c>
+      <c r="C29" s="78" t="s">
+        <v>817</v>
+      </c>
+      <c r="D29" s="85" t="s">
+        <v>760</v>
+      </c>
+      <c r="E29" s="80" t="s">
+        <v>830</v>
+      </c>
+      <c r="F29" s="79" t="s">
+        <v>827</v>
+      </c>
+      <c r="G29" s="77" t="s">
+        <v>828</v>
+      </c>
+      <c r="H29" s="94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A30" s="74" t="s">
+        <v>647</v>
+      </c>
+      <c r="B30" s="77" t="s">
+        <v>831</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>817</v>
+      </c>
+      <c r="D30" s="85" t="s">
+        <v>760</v>
+      </c>
+      <c r="E30" s="80" t="s">
+        <v>832</v>
+      </c>
+      <c r="F30" s="79" t="s">
+        <v>833</v>
+      </c>
+      <c r="G30" s="79" t="s">
+        <v>834</v>
+      </c>
+      <c r="H30" s="94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A31" s="74" t="s">
+        <v>648</v>
+      </c>
+      <c r="B31" s="77" t="s">
+        <v>835</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>817</v>
+      </c>
+      <c r="D31" s="85" t="s">
+        <v>760</v>
+      </c>
+      <c r="E31" s="80" t="s">
+        <v>836</v>
+      </c>
+      <c r="F31" s="79" t="s">
+        <v>837</v>
+      </c>
+      <c r="G31" s="79" t="s">
+        <v>838</v>
+      </c>
+      <c r="H31" s="94" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="J2:J3">
@@ -9009,8 +9743,9 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{4BEDE921-FE08-45F2-94E3-92612FC2D006}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{C12F9F50-A4A4-41D6-8925-D96714817639}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>